--- a/RestTime.xlsx
+++ b/RestTime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025-2\PAPVNWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\PAPVNWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D86C08-6231-4D21-8309-E09CF92C5D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F68845F-9512-4207-A276-6E301548DF51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="RestTime" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,7 +69,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,11 +380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72C409C-C181-4690-BE44-899CAFBD9558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,120 +401,192 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
